--- a/assets/Sample_Input_template.xlsx
+++ b/assets/Sample_Input_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FNS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FNS\Desktop\AWS-PC - Copy\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFC86AD-8D55-4CAA-96C1-3FC07D835F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE0B14-9384-488F-8C39-1A90E86D6776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4E35BF92-FBCE-427E-9639-716A630E945F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>DNS Name</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Memory(GB)</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Disk Size(GB)</t>
+  </si>
+  <si>
+    <t>10.1.1.2</t>
+  </si>
+  <si>
+    <t>RHEL</t>
+  </si>
+  <si>
+    <t>POSTGRESQL</t>
   </si>
 </sst>
 </file>
@@ -488,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3477A29-ABDE-45B5-B81D-4FAAD9626EF6}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,9 +525,10 @@
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -543,8 +562,14 @@
       <c r="K1" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -577,6 +602,78 @@
       </c>
       <c r="K2" s="3">
         <v>50</v>
+      </c>
+      <c r="L2" s="3">
+        <v>500</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="3">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3">
+        <v>800</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Sample_Input_template.xlsx
+++ b/assets/Sample_Input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FNS\Desktop\AWS-PC - Copy\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE0B14-9384-488F-8C39-1A90E86D6776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F01C3A-F6EB-4D5C-AE61-CFBC7C441A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4E35BF92-FBCE-427E-9639-716A630E945F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>DNS Name</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3477A29-ABDE-45B5-B81D-4FAAD9626EF6}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,31 +651,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
